--- a/src/БПК_2024_партнеры.xlsx
+++ b/src/БПК_2024_партнеры.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitriyrus/PycharmProjects/CheckTickets/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0112E8A6-8688-8144-9894-AD2065FA94E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7777F1-94F8-084E-B762-3190AEFF57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14300" xr2:uid="{B831DF39-1DE6-A64D-90D9-CCF2FA02ED6E}"/>
+    <workbookView xWindow="1180" yWindow="1940" windowWidth="26840" windowHeight="14300" xr2:uid="{B831DF39-1DE6-A64D-90D9-CCF2FA02ED6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="534">
   <si>
     <t>Елена</t>
   </si>
@@ -111,30 +111,15 @@
     <t>РЕГИОН КАСС</t>
   </si>
   <si>
-    <t xml:space="preserve">Наталья </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мамакова </t>
-  </si>
-  <si>
     <t>Нижний Новгород</t>
   </si>
   <si>
     <t>Весы НН</t>
   </si>
   <si>
-    <t xml:space="preserve">Юлия </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Таранова </t>
-  </si>
-  <si>
     <t>ЭВМ-Касса</t>
   </si>
   <si>
-    <t xml:space="preserve">Екатерина </t>
-  </si>
-  <si>
     <t>Логинова</t>
   </si>
   <si>
@@ -147,27 +132,12 @@
     <t>Марат</t>
   </si>
   <si>
-    <t xml:space="preserve">Абасалиев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шабанов </t>
-  </si>
-  <si>
     <t>Пятигорск</t>
   </si>
   <si>
     <t>Торгсервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Андрей </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калимбетов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Курилов </t>
-  </si>
-  <si>
     <t>КАССА 77</t>
   </si>
   <si>
@@ -177,81 +147,36 @@
     <t>КОМПАНИЯ СОФТУМ</t>
   </si>
   <si>
-    <t xml:space="preserve">Ольга </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тихая </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Игорь </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Волобуев </t>
-  </si>
-  <si>
     <t>Вологда</t>
   </si>
   <si>
     <t>АРТОЛ</t>
   </si>
   <si>
-    <t xml:space="preserve">Евгений </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Узоров </t>
-  </si>
-  <si>
     <t>Одинцово</t>
   </si>
   <si>
     <t>Аккорд-Плюс</t>
   </si>
   <si>
-    <t xml:space="preserve">Сергей </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Парфентьев </t>
-  </si>
-  <si>
     <t>Уфа</t>
   </si>
   <si>
     <t>ИП Тостокоров А.С.</t>
   </si>
   <si>
-    <t xml:space="preserve">Антон </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Толстокоров </t>
-  </si>
-  <si>
     <t>Астрахань</t>
   </si>
   <si>
     <t>ТЕХНОКАССА</t>
   </si>
   <si>
-    <t xml:space="preserve">Ренат </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Идрисов </t>
-  </si>
-  <si>
     <t>Санкт-Петербург</t>
   </si>
   <si>
     <t>ПОС78</t>
   </si>
   <si>
-    <t xml:space="preserve">Павел </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Малецкий </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Геннадий </t>
-  </si>
-  <si>
     <t>Ижевск</t>
   </si>
   <si>
@@ -264,63 +189,30 @@
     <t>ККМ-ДИСТРИБУЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">Крутиков </t>
-  </si>
-  <si>
     <t>Волгоград</t>
   </si>
   <si>
     <t>Приборсервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Буровников </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Олег </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Савельев </t>
-  </si>
-  <si>
     <t>Краснодар</t>
   </si>
   <si>
     <t>АВТОМАТИЗАЦИЯ БИЗНЕСА</t>
   </si>
   <si>
-    <t xml:space="preserve">Середкин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваган </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Айрапетян </t>
-  </si>
-  <si>
     <t>КЛАСС</t>
   </si>
   <si>
-    <t xml:space="preserve">Александр </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Галкин </t>
-  </si>
-  <si>
     <t>Тула</t>
   </si>
   <si>
     <t>Конфигуратор</t>
   </si>
   <si>
-    <t xml:space="preserve">Кузнецов </t>
-  </si>
-  <si>
     <t>Кассовый сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Дмитрий </t>
-  </si>
-  <si>
     <t>Берг</t>
   </si>
   <si>
@@ -330,9 +222,6 @@
     <t>ПРОФЕССИОНАЛЬНЫЕ КАССОВЫЕ СИСТЕМЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">Шайдаров </t>
-  </si>
-  <si>
     <t>Ставрополь</t>
   </si>
   <si>
@@ -348,21 +237,9 @@
     <t>Олимп-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Григорьев </t>
-  </si>
-  <si>
     <t>its group</t>
   </si>
   <si>
-    <t xml:space="preserve">Адилов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лучин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зарубин </t>
-  </si>
-  <si>
     <t>Курск</t>
   </si>
   <si>
@@ -372,27 +249,15 @@
     <t>Владислав</t>
   </si>
   <si>
-    <t xml:space="preserve">Селин </t>
-  </si>
-  <si>
     <t>Первый БИТ</t>
   </si>
   <si>
-    <t xml:space="preserve">Лысухин </t>
-  </si>
-  <si>
     <t>Воронеж</t>
   </si>
   <si>
     <t>ВС-ГРУПП</t>
   </si>
   <si>
-    <t xml:space="preserve">Анна </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Князева </t>
-  </si>
-  <si>
     <t>Ярославль</t>
   </si>
   <si>
@@ -402,57 +267,27 @@
     <t>Юрий</t>
   </si>
   <si>
-    <t xml:space="preserve">Киселев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Морев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Морозова </t>
-  </si>
-  <si>
     <t>Белгород</t>
   </si>
   <si>
     <t>БИН.КОМ</t>
   </si>
   <si>
-    <t xml:space="preserve">Афанасьев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Орлов </t>
-  </si>
-  <si>
     <t>Территория ПОС</t>
   </si>
   <si>
     <t>Татьяна</t>
   </si>
   <si>
-    <t xml:space="preserve">Белова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валгепеа </t>
-  </si>
-  <si>
     <t>Сервис-ЮГ-ККМ</t>
   </si>
   <si>
-    <t xml:space="preserve">Филипп </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Левин </t>
-  </si>
-  <si>
     <t>Липецк</t>
   </si>
   <si>
     <t>МАРКЕТ-МАСТЕР</t>
   </si>
   <si>
-    <t xml:space="preserve">Околелов </t>
-  </si>
-  <si>
     <t>НОВЫЕ СИСТЕМЫ</t>
   </si>
   <si>
@@ -465,12 +300,6 @@
     <t>АТМ АЛЬЯНС</t>
   </si>
   <si>
-    <t xml:space="preserve">Молоканова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сошина </t>
-  </si>
-  <si>
     <t>Петропавловск-Камчатский</t>
   </si>
   <si>
@@ -486,9 +315,6 @@
     <t>АСЦ ККТ-Онлайн</t>
   </si>
   <si>
-    <t xml:space="preserve">Фларит </t>
-  </si>
-  <si>
     <t>Сахибгареев</t>
   </si>
   <si>
@@ -498,63 +324,36 @@
     <t>КАСС-СЕРВИС</t>
   </si>
   <si>
-    <t xml:space="preserve">Крайнов </t>
-  </si>
-  <si>
     <t>Барнаул</t>
   </si>
   <si>
     <t>Компания ПРОКС</t>
   </si>
   <si>
-    <t xml:space="preserve">Некричевских </t>
-  </si>
-  <si>
     <t>Владивосток</t>
   </si>
   <si>
     <t>БЕЛАЯ КАССА</t>
   </si>
   <si>
-    <t xml:space="preserve">Денис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Харичко </t>
-  </si>
-  <si>
     <t>Иркутск</t>
   </si>
   <si>
     <t>АСФ</t>
   </si>
   <si>
-    <t xml:space="preserve">Марьенко </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артемьев </t>
-  </si>
-  <si>
     <t>МАСТ</t>
   </si>
   <si>
-    <t xml:space="preserve">Маслов </t>
-  </si>
-  <si>
     <t>POS4POS</t>
   </si>
   <si>
-    <t xml:space="preserve">Левчук </t>
-  </si>
-  <si>
     <t>Калининград</t>
   </si>
   <si>
     <t>ЭПОХА</t>
   </si>
   <si>
-    <t xml:space="preserve">Москаленко </t>
-  </si>
-  <si>
     <t>Калуга</t>
   </si>
   <si>
@@ -564,198 +363,93 @@
     <t>Евгений</t>
   </si>
   <si>
-    <t xml:space="preserve">Одинцов </t>
-  </si>
-  <si>
     <t>Киров</t>
   </si>
   <si>
     <t>Вятка-эко</t>
   </si>
   <si>
-    <t xml:space="preserve">Шестаков </t>
-  </si>
-  <si>
     <t>Пермь</t>
   </si>
   <si>
     <t>СТК</t>
   </si>
   <si>
-    <t xml:space="preserve">Марина </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Попцова </t>
-  </si>
-  <si>
     <t>Софтонлайн</t>
   </si>
   <si>
-    <t xml:space="preserve">Мезенцев </t>
-  </si>
-  <si>
     <t>Новосибирск</t>
   </si>
   <si>
     <t>АУРА</t>
   </si>
   <si>
-    <t xml:space="preserve">Щербаков </t>
-  </si>
-  <si>
     <t>Анастасия</t>
   </si>
   <si>
-    <t xml:space="preserve">Маликова </t>
-  </si>
-  <si>
     <t>КупиКассу</t>
   </si>
   <si>
-    <t xml:space="preserve">Трофимов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фартышев </t>
-  </si>
-  <si>
     <t>ОКА-ЭЛЕКТРОН</t>
   </si>
   <si>
-    <t xml:space="preserve">Клепинин </t>
-  </si>
-  <si>
     <t>Формула Торговли</t>
   </si>
   <si>
-    <t xml:space="preserve">Левчиков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чернокоз </t>
-  </si>
-  <si>
     <t>Амила</t>
   </si>
   <si>
-    <t xml:space="preserve">Компанец </t>
-  </si>
-  <si>
     <t>Софтрон-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Иванов </t>
-  </si>
-  <si>
     <t>Контакт</t>
   </si>
   <si>
-    <t xml:space="preserve">Жилкин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Михаил </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лантюхов </t>
-  </si>
-  <si>
     <t>Тюмень</t>
   </si>
   <si>
     <t>Элита-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Зельский </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Езжев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алейников </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Журавский </t>
-  </si>
-  <si>
     <t>Клеверенс</t>
   </si>
   <si>
-    <t xml:space="preserve">Стариков </t>
-  </si>
-  <si>
     <t>Эдуард</t>
   </si>
   <si>
-    <t xml:space="preserve">Рафиков </t>
-  </si>
-  <si>
     <t>Приморская Марка</t>
   </si>
   <si>
     <t>Долгополов</t>
   </si>
   <si>
-    <t xml:space="preserve">Алексей </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гончарик </t>
-  </si>
-  <si>
     <t>Вязникова</t>
   </si>
   <si>
-    <t xml:space="preserve">Людмила </t>
-  </si>
-  <si>
     <t>Ометова</t>
   </si>
   <si>
-    <t xml:space="preserve">Багинский </t>
-  </si>
-  <si>
     <t>Сидельцев</t>
   </si>
   <si>
     <t>UCS Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Ассмус </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сафонов </t>
-  </si>
-  <si>
     <t>БИЗНЕС КОД</t>
   </si>
   <si>
-    <t xml:space="preserve">Угроватов </t>
-  </si>
-  <si>
     <t>СВ Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Веденьев </t>
-  </si>
-  <si>
     <t>Саратов</t>
   </si>
   <si>
     <t>Океан-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширяев </t>
-  </si>
-  <si>
     <t>ТЕРАБАЙТ</t>
   </si>
   <si>
-    <t xml:space="preserve">Негадов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максим </t>
-  </si>
-  <si>
     <t>Быченков</t>
   </si>
   <si>
@@ -774,18 +468,9 @@
     <t>БизнесДок</t>
   </si>
   <si>
-    <t xml:space="preserve">Елена </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ковтун </t>
-  </si>
-  <si>
     <t>Лига-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Литвинов </t>
-  </si>
-  <si>
     <t>Самара</t>
   </si>
   <si>
@@ -801,66 +486,27 @@
     <t>СКБ Контур</t>
   </si>
   <si>
-    <t xml:space="preserve">Рамиль </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шагалиев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пестерев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Захаров </t>
-  </si>
-  <si>
     <t>Визард</t>
   </si>
   <si>
-    <t xml:space="preserve">Анастасия </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дирина </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сидоров </t>
-  </si>
-  <si>
     <t>Техно-ДВ</t>
   </si>
   <si>
-    <t xml:space="preserve">Щетинин </t>
-  </si>
-  <si>
     <t>Патрик</t>
   </si>
   <si>
-    <t xml:space="preserve">Вадим </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Толстов </t>
-  </si>
-  <si>
     <t>Челябинск</t>
   </si>
   <si>
     <t>Бит-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Виталий </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гусев </t>
-  </si>
-  <si>
     <t>Балашиха</t>
   </si>
   <si>
     <t>РЕМИКОМ-К</t>
   </si>
   <si>
-    <t xml:space="preserve">Татьяна </t>
-  </si>
-  <si>
     <t>Ремишевская</t>
   </si>
   <si>
@@ -873,39 +519,15 @@
     <t>Статус-К</t>
   </si>
   <si>
-    <t xml:space="preserve">Царев </t>
-  </si>
-  <si>
     <t>Платформа ОФД</t>
   </si>
   <si>
-    <t xml:space="preserve">Николай </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Голюдбин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баров </t>
-  </si>
-  <si>
     <t>АСЦ ПЛЮС</t>
   </si>
   <si>
-    <t xml:space="preserve">Кучева </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кучев </t>
-  </si>
-  <si>
     <t>Якутск</t>
   </si>
   <si>
-    <t xml:space="preserve">АКСИОМА </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Грищенко </t>
-  </si>
-  <si>
     <t>Красноярск</t>
   </si>
   <si>
@@ -921,126 +543,48 @@
     <t>РИОКТА</t>
   </si>
   <si>
-    <t xml:space="preserve">Журавлев </t>
-  </si>
-  <si>
     <t>Шахты</t>
   </si>
   <si>
     <t>ИКАР</t>
   </si>
   <si>
-    <t xml:space="preserve">Сафронова </t>
-  </si>
-  <si>
     <t>IT-Formula</t>
   </si>
   <si>
     <t>Спиридонов</t>
   </si>
   <si>
-    <t xml:space="preserve">Артём </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кутлыев </t>
-  </si>
-  <si>
     <t>Сыктывкар</t>
   </si>
   <si>
     <t>ДЕНВИК</t>
   </si>
   <si>
-    <t xml:space="preserve">Яметов </t>
-  </si>
-  <si>
     <t>Грозный</t>
   </si>
   <si>
-    <t xml:space="preserve">Гарант Сервис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Абусупьян </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мовтигов </t>
-  </si>
-  <si>
     <t>Гарант Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Ильяс </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зулпухаров </t>
-  </si>
-  <si>
     <t>АйТи Касс</t>
   </si>
   <si>
-    <t xml:space="preserve">Тимур </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вафин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Булатов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Важнёв </t>
-  </si>
-  <si>
     <t>Мистер Чек</t>
   </si>
   <si>
-    <t xml:space="preserve">Лосюгин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жаринов </t>
-  </si>
-  <si>
     <t>Смоленск</t>
   </si>
   <si>
     <t>Техноцентр Запад</t>
   </si>
   <si>
-    <t>Щур Павел Иванович</t>
-  </si>
-  <si>
     <t>Щур</t>
   </si>
   <si>
-    <t xml:space="preserve">Пятченков Евгений Дмитриевич </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пятченков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Попцов </t>
-  </si>
-  <si>
     <t>Витма-сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Прожерин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пильский </t>
-  </si>
-  <si>
-    <t>Пономарев Глеб Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пономарев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мария </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Егорова </t>
-  </si>
-  <si>
     <t>Ворона</t>
   </si>
   <si>
@@ -1050,282 +594,138 @@
     <t>ПРОФКЕЙС</t>
   </si>
   <si>
-    <t xml:space="preserve">Максимов </t>
-  </si>
-  <si>
     <t>Сервис-комплект</t>
   </si>
   <si>
-    <t xml:space="preserve">Лямин </t>
-  </si>
-  <si>
     <t>Абакан</t>
   </si>
   <si>
     <t>Хакасия.ру</t>
   </si>
   <si>
-    <t xml:space="preserve">Дегтяренко </t>
-  </si>
-  <si>
     <t>Южно-Сахалинск</t>
   </si>
   <si>
     <t>Технолэнд</t>
   </si>
   <si>
-    <t xml:space="preserve">Козлов </t>
-  </si>
-  <si>
     <t>Активные Технологии</t>
   </si>
   <si>
-    <t xml:space="preserve">Касаткин </t>
-  </si>
-  <si>
     <t>Слон-Электроникс</t>
   </si>
   <si>
     <t>Нэлли</t>
   </si>
   <si>
-    <t xml:space="preserve">Мукайлянц </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Григорьева </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Николаева </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Светличный </t>
-  </si>
-  <si>
     <t>ЦЭК - Автоматизация торговли</t>
   </si>
   <si>
-    <t xml:space="preserve">Терещук </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богатырев </t>
-  </si>
-  <si>
     <t>СофтБаланс</t>
   </si>
   <si>
     <t>Иван</t>
   </si>
   <si>
-    <t xml:space="preserve">Руденко </t>
-  </si>
-  <si>
     <t>Виктория</t>
   </si>
   <si>
-    <t xml:space="preserve">Нистратова </t>
-  </si>
-  <si>
     <t>Ай-ти проект</t>
   </si>
   <si>
-    <t xml:space="preserve">Тимерханов </t>
-  </si>
-  <si>
     <t>САВИАЛ</t>
   </si>
   <si>
-    <t xml:space="preserve">Хусаев </t>
-  </si>
-  <si>
     <t>АРТА</t>
   </si>
   <si>
-    <t xml:space="preserve">Солохин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пашаев </t>
-  </si>
-  <si>
     <t>Ростов-На-Дону</t>
   </si>
   <si>
-    <t xml:space="preserve">Юрий </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нодберг </t>
-  </si>
-  <si>
     <t>1С</t>
   </si>
   <si>
     <t>Артем</t>
   </si>
   <si>
-    <t xml:space="preserve">Шагизиганов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Неверова </t>
-  </si>
-  <si>
     <t>РИТЕЙЛПРОФ ГРУПП</t>
   </si>
   <si>
-    <t xml:space="preserve">Флерис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плахин </t>
-  </si>
-  <si>
     <t>Бизнес Технологии</t>
   </si>
   <si>
-    <t xml:space="preserve">Клименко </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бударный </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Малинина </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нагимуллин </t>
-  </si>
-  <si>
     <t>ЦА Эксперт</t>
   </si>
   <si>
-    <t xml:space="preserve">Плесовских </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Никита </t>
-  </si>
-  <si>
     <t>Макаров</t>
   </si>
   <si>
     <t>UGS</t>
   </si>
   <si>
-    <t xml:space="preserve">Казанцев </t>
-  </si>
-  <si>
     <t>Лота</t>
   </si>
   <si>
-    <t xml:space="preserve">Яловой </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фаррух </t>
-  </si>
-  <si>
     <t>Далиев</t>
   </si>
   <si>
     <t>ИНТЕЛИС</t>
   </si>
   <si>
-    <t xml:space="preserve">Присняков </t>
-  </si>
-  <si>
     <t>Оптима-торг</t>
   </si>
   <si>
-    <t xml:space="preserve">Липецкий </t>
-  </si>
-  <si>
     <t>САМПО</t>
   </si>
   <si>
     <t>Торопченов</t>
   </si>
   <si>
-    <t xml:space="preserve">Павлов </t>
-  </si>
-  <si>
     <t>ФЛАГМАН</t>
   </si>
   <si>
     <t>Анна</t>
   </si>
   <si>
-    <t xml:space="preserve">Медведев </t>
-  </si>
-  <si>
     <t>Хэдлайн</t>
   </si>
   <si>
     <t>Тимур</t>
   </si>
   <si>
-    <t xml:space="preserve">Юсупов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Климов </t>
-  </si>
-  <si>
     <t>Мурманск</t>
   </si>
   <si>
     <t>ИТФ</t>
   </si>
   <si>
-    <t xml:space="preserve">Бавкунович </t>
-  </si>
-  <si>
     <t>ККМ</t>
   </si>
   <si>
     <t>POS RETAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">Игнатова </t>
-  </si>
-  <si>
     <t>FROST</t>
   </si>
   <si>
-    <t xml:space="preserve">Мажбиев </t>
-  </si>
-  <si>
     <t>Торговый проект</t>
   </si>
   <si>
-    <t xml:space="preserve">Новоселов </t>
-  </si>
-  <si>
     <t>Нефтеюганск</t>
   </si>
   <si>
     <t>НРТСЦ</t>
   </si>
   <si>
-    <t xml:space="preserve">Шипицын </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Клементьев </t>
-  </si>
-  <si>
     <t>ЭТИМ</t>
   </si>
   <si>
-    <t xml:space="preserve">Васильев </t>
-  </si>
-  <si>
     <t>Антон</t>
   </si>
   <si>
-    <t xml:space="preserve">Богданов </t>
-  </si>
-  <si>
     <t>ТАКСКОМ</t>
   </si>
   <si>
-    <t xml:space="preserve">Гульнара </t>
-  </si>
-  <si>
     <t>Айсен</t>
   </si>
   <si>
@@ -1335,45 +735,18 @@
     <t>CAWI</t>
   </si>
   <si>
-    <t xml:space="preserve">Чудин </t>
-  </si>
-  <si>
     <t>Океан-КВ</t>
   </si>
   <si>
-    <t xml:space="preserve">Евгения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Яценко </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Феоктистов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Егоров </t>
-  </si>
-  <si>
     <t>Брэнд Селект</t>
   </si>
   <si>
-    <t xml:space="preserve">Кадосин </t>
-  </si>
-  <si>
     <t>Желудков</t>
   </si>
   <si>
-    <t xml:space="preserve">Елистратова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Двоеглазов </t>
-  </si>
-  <si>
     <t>Руслан</t>
   </si>
   <si>
-    <t xml:space="preserve">Гюльахмедов </t>
-  </si>
-  <si>
     <t>ДатаКрат-Е</t>
   </si>
   <si>
@@ -1383,60 +756,30 @@
     <t>Шиляев</t>
   </si>
   <si>
-    <t xml:space="preserve">Ивачев </t>
-  </si>
-  <si>
     <t>Брянск</t>
   </si>
   <si>
     <t>Авангард</t>
   </si>
   <si>
-    <t xml:space="preserve">Аркадий </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цацурин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Певнев </t>
-  </si>
-  <si>
     <t>Кассовый центр</t>
   </si>
   <si>
-    <t xml:space="preserve">Гурьянов </t>
-  </si>
-  <si>
     <t>СтавКасса</t>
   </si>
   <si>
-    <t xml:space="preserve">Новиков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Джанаева </t>
-  </si>
-  <si>
     <t>РИН-сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Перов </t>
-  </si>
-  <si>
     <t>Курган</t>
   </si>
   <si>
     <t>Ркасс45</t>
   </si>
   <si>
-    <t xml:space="preserve">Насонов </t>
-  </si>
-  <si>
     <t>ВТИ-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Федосов </t>
-  </si>
-  <si>
     <t>Компании Итегро</t>
   </si>
   <si>
@@ -1452,51 +795,15 @@
     <t>КОМПАС -Т</t>
   </si>
   <si>
-    <t xml:space="preserve">Зыкова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роман </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зыков </t>
-  </si>
-  <si>
     <t>Софт-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Ринат </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сайхутдинов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валентина </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маурер </t>
-  </si>
-  <si>
     <t>ГАЛИОН-ИТ</t>
   </si>
   <si>
-    <t xml:space="preserve">Шаля </t>
-  </si>
-  <si>
     <t>КАМА-ТРЕЙД</t>
   </si>
   <si>
-    <t xml:space="preserve">Образцов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Никонов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Альберт </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миннуллин </t>
-  </si>
-  <si>
     <t>Ф-КАССА</t>
   </si>
   <si>
@@ -1509,12 +816,6 @@
     <t>ХОТПОС</t>
   </si>
   <si>
-    <t xml:space="preserve">Конопёлкина </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дегтярев </t>
-  </si>
-  <si>
     <t>Штрихкод</t>
   </si>
   <si>
@@ -1524,42 +825,21 @@
     <t>Компания Интегро</t>
   </si>
   <si>
-    <t xml:space="preserve">Артемий </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шутов </t>
-  </si>
-  <si>
     <t>Лилия</t>
   </si>
   <si>
-    <t xml:space="preserve">Абдуллина </t>
-  </si>
-  <si>
     <t>Софт Трейд</t>
   </si>
   <si>
-    <t xml:space="preserve">Романов </t>
-  </si>
-  <si>
     <t>Челябторгтехника</t>
   </si>
   <si>
-    <t xml:space="preserve">Шмаков </t>
-  </si>
-  <si>
     <t>Кассы онлайн</t>
   </si>
   <si>
-    <t xml:space="preserve">Ели </t>
-  </si>
-  <si>
     <t>Айти-Профи</t>
   </si>
   <si>
-    <t xml:space="preserve">Елистратов </t>
-  </si>
-  <si>
     <t>Хабаровск</t>
   </si>
   <si>
@@ -1569,93 +849,45 @@
     <t>Раевский</t>
   </si>
   <si>
-    <t xml:space="preserve">Рустам </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Муктаров </t>
-  </si>
-  <si>
     <t>ФЛАГМАН-КУБАНЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">Гришко </t>
-  </si>
-  <si>
     <t>ПОРТ</t>
   </si>
   <si>
     <t>Фирсов</t>
   </si>
   <si>
-    <t xml:space="preserve">Ушакова </t>
-  </si>
-  <si>
     <t>Эней</t>
   </si>
   <si>
-    <t xml:space="preserve">Толстиков </t>
-  </si>
-  <si>
     <t>Систем Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Яновицкий </t>
-  </si>
-  <si>
     <t>Когалым</t>
   </si>
   <si>
     <t>ЭНЕРГОСОФТ</t>
   </si>
   <si>
-    <t xml:space="preserve">Анатолий </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Храмов </t>
-  </si>
-  <si>
     <t>ТСЦ-Дарсиб-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Денисова </t>
-  </si>
-  <si>
     <t>Ритейл Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Лагоха </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валентин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кузьменко </t>
-  </si>
-  <si>
     <t>ALSTER GROUP</t>
   </si>
   <si>
-    <t xml:space="preserve">Филиппова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мартынюк </t>
-  </si>
-  <si>
     <t>Алексеева</t>
   </si>
   <si>
     <t>ЭНТАСК</t>
   </si>
   <si>
-    <t xml:space="preserve">Петров </t>
-  </si>
-  <si>
     <t>И-Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Лабун </t>
-  </si>
-  <si>
     <t>Череповец</t>
   </si>
   <si>
@@ -1665,42 +897,21 @@
     <t>2х2</t>
   </si>
   <si>
-    <t xml:space="preserve">Цветков </t>
-  </si>
-  <si>
     <t>СМАРТИКА</t>
   </si>
   <si>
-    <t xml:space="preserve">Илья </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Быков </t>
-  </si>
-  <si>
     <t>КОМПАНИЯ ВИКО</t>
   </si>
   <si>
-    <t xml:space="preserve">Петрухин </t>
-  </si>
-  <si>
     <t>Компания Lad</t>
   </si>
   <si>
-    <t xml:space="preserve">Даниил </t>
-  </si>
-  <si>
     <t>Поляков</t>
   </si>
   <si>
-    <t xml:space="preserve">Адиятуллин </t>
-  </si>
-  <si>
     <t>Мак СИМ</t>
   </si>
   <si>
-    <t xml:space="preserve">Сухоруков </t>
-  </si>
-  <si>
     <t>Орск</t>
   </si>
   <si>
@@ -1710,9 +921,6 @@
     <t>Вячеслав</t>
   </si>
   <si>
-    <t xml:space="preserve">Гаврилов </t>
-  </si>
-  <si>
     <t>RegQR</t>
   </si>
   <si>
@@ -1726,6 +934,708 @@
   </si>
   <si>
     <t>Surname</t>
+  </si>
+  <si>
+    <t>Гаврилов</t>
+  </si>
+  <si>
+    <t>Сухоруков</t>
+  </si>
+  <si>
+    <t>Адиятуллин</t>
+  </si>
+  <si>
+    <t>Ренат</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Петрухин</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Быков</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Цветков</t>
+  </si>
+  <si>
+    <t>Крутиков</t>
+  </si>
+  <si>
+    <t>Лабун</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Мартынюк</t>
+  </si>
+  <si>
+    <t>Филиппова</t>
+  </si>
+  <si>
+    <t>Кузьменко</t>
+  </si>
+  <si>
+    <t>Валентин</t>
+  </si>
+  <si>
+    <t>Лагоха</t>
+  </si>
+  <si>
+    <t>Денисова</t>
+  </si>
+  <si>
+    <t>Храмов</t>
+  </si>
+  <si>
+    <t>Анатолий</t>
+  </si>
+  <si>
+    <t>Яновицкий</t>
+  </si>
+  <si>
+    <t>Толстиков</t>
+  </si>
+  <si>
+    <t>Ушакова</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Гришко</t>
+  </si>
+  <si>
+    <t>Артём</t>
+  </si>
+  <si>
+    <t>Муктаров</t>
+  </si>
+  <si>
+    <t>Рустам</t>
+  </si>
+  <si>
+    <t>Елистратов</t>
+  </si>
+  <si>
+    <t>Ели</t>
+  </si>
+  <si>
+    <t>Шмаков</t>
+  </si>
+  <si>
+    <t>Романов</t>
+  </si>
+  <si>
+    <t>Пономарев</t>
+  </si>
+  <si>
+    <t>Абдуллина</t>
+  </si>
+  <si>
+    <t>Шутов</t>
+  </si>
+  <si>
+    <t>Артемий</t>
+  </si>
+  <si>
+    <t>Дегтярев</t>
+  </si>
+  <si>
+    <t>Конопёлкина</t>
+  </si>
+  <si>
+    <t>Миннуллин</t>
+  </si>
+  <si>
+    <t>Альберт</t>
+  </si>
+  <si>
+    <t>Никонов</t>
+  </si>
+  <si>
+    <t>Образцов</t>
+  </si>
+  <si>
+    <t>Шаля</t>
+  </si>
+  <si>
+    <t>Маурер</t>
+  </si>
+  <si>
+    <t>Валентина</t>
+  </si>
+  <si>
+    <t>Сайхутдинов</t>
+  </si>
+  <si>
+    <t>Ринат</t>
+  </si>
+  <si>
+    <t>Зыков</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Зыкова</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Федосов</t>
+  </si>
+  <si>
+    <t>Насонов</t>
+  </si>
+  <si>
+    <t>Перов</t>
+  </si>
+  <si>
+    <t>Джанаева</t>
+  </si>
+  <si>
+    <t>Новиков</t>
+  </si>
+  <si>
+    <t>Гурьянов</t>
+  </si>
+  <si>
+    <t>Певнев</t>
+  </si>
+  <si>
+    <t>Цацурин</t>
+  </si>
+  <si>
+    <t>Аркадий</t>
+  </si>
+  <si>
+    <t>Ивачев</t>
+  </si>
+  <si>
+    <t>Гюльахмедов</t>
+  </si>
+  <si>
+    <t>Двоеглазов</t>
+  </si>
+  <si>
+    <t>Елистратова</t>
+  </si>
+  <si>
+    <t>Кадосин</t>
+  </si>
+  <si>
+    <t>Егоров</t>
+  </si>
+  <si>
+    <t>Феоктистов</t>
+  </si>
+  <si>
+    <t>Яценко</t>
+  </si>
+  <si>
+    <t>Евгения</t>
+  </si>
+  <si>
+    <t>Чудин</t>
+  </si>
+  <si>
+    <t>АКСИОМА</t>
+  </si>
+  <si>
+    <t>Гульнара</t>
+  </si>
+  <si>
+    <t>Богданов</t>
+  </si>
+  <si>
+    <t>Васильев</t>
+  </si>
+  <si>
+    <t>Клементьев</t>
+  </si>
+  <si>
+    <t>Шипицын</t>
+  </si>
+  <si>
+    <t>Новоселов</t>
+  </si>
+  <si>
+    <t>Мажбиев</t>
+  </si>
+  <si>
+    <t>Игнатова</t>
+  </si>
+  <si>
+    <t>Григорьев</t>
+  </si>
+  <si>
+    <t>Бавкунович</t>
+  </si>
+  <si>
+    <t>Климов</t>
+  </si>
+  <si>
+    <t>Юсупов</t>
+  </si>
+  <si>
+    <t>Медведев</t>
+  </si>
+  <si>
+    <t>Белова</t>
+  </si>
+  <si>
+    <t>Павлов</t>
+  </si>
+  <si>
+    <t>Липецкий</t>
+  </si>
+  <si>
+    <t>Присняков</t>
+  </si>
+  <si>
+    <t>Фаррух</t>
+  </si>
+  <si>
+    <t>Яловой</t>
+  </si>
+  <si>
+    <t>Казанцев</t>
+  </si>
+  <si>
+    <t>Плесовских</t>
+  </si>
+  <si>
+    <t>Нагимуллин</t>
+  </si>
+  <si>
+    <t>Богод</t>
+  </si>
+  <si>
+    <t>Малинина</t>
+  </si>
+  <si>
+    <t>Бударный</t>
+  </si>
+  <si>
+    <t>Клименко</t>
+  </si>
+  <si>
+    <t>Плахин</t>
+  </si>
+  <si>
+    <t>Флерис</t>
+  </si>
+  <si>
+    <t>Неверова</t>
+  </si>
+  <si>
+    <t>Шагизиганов</t>
+  </si>
+  <si>
+    <t>Нодберг</t>
+  </si>
+  <si>
+    <t>Пашаев</t>
+  </si>
+  <si>
+    <t>Солохин</t>
+  </si>
+  <si>
+    <t>Хусаев</t>
+  </si>
+  <si>
+    <t>Тимерханов</t>
+  </si>
+  <si>
+    <t>Нистратова</t>
+  </si>
+  <si>
+    <t>Руденко</t>
+  </si>
+  <si>
+    <t>Богатырев</t>
+  </si>
+  <si>
+    <t>Терещук</t>
+  </si>
+  <si>
+    <t>Светличный</t>
+  </si>
+  <si>
+    <t>Николаева</t>
+  </si>
+  <si>
+    <t>Григорьева</t>
+  </si>
+  <si>
+    <t>Мукайлянц</t>
+  </si>
+  <si>
+    <t>Касаткин</t>
+  </si>
+  <si>
+    <t>Козлов</t>
+  </si>
+  <si>
+    <t>Дегтяренко</t>
+  </si>
+  <si>
+    <t>Лямин</t>
+  </si>
+  <si>
+    <t>Максимов</t>
+  </si>
+  <si>
+    <t>Егорова</t>
+  </si>
+  <si>
+    <t>Кузнецов</t>
+  </si>
+  <si>
+    <t>Пильский</t>
+  </si>
+  <si>
+    <t>Прожерин</t>
+  </si>
+  <si>
+    <t>Попцов</t>
+  </si>
+  <si>
+    <t>Пятченков</t>
+  </si>
+  <si>
+    <t>Жаринов</t>
+  </si>
+  <si>
+    <t>Лосюгин</t>
+  </si>
+  <si>
+    <t>Важнёв</t>
+  </si>
+  <si>
+    <t>Булатов</t>
+  </si>
+  <si>
+    <t>Вафин</t>
+  </si>
+  <si>
+    <t>Зулпухаров</t>
+  </si>
+  <si>
+    <t>Ильяс</t>
+  </si>
+  <si>
+    <t>Мовтигов</t>
+  </si>
+  <si>
+    <t>Абусупьян</t>
+  </si>
+  <si>
+    <t>Яметов</t>
+  </si>
+  <si>
+    <t>Кутлыев</t>
+  </si>
+  <si>
+    <t>Сафронова</t>
+  </si>
+  <si>
+    <t>Журавлев</t>
+  </si>
+  <si>
+    <t>Грищенко</t>
+  </si>
+  <si>
+    <t>Кучев</t>
+  </si>
+  <si>
+    <t>Кучева</t>
+  </si>
+  <si>
+    <t>Афанасьев</t>
+  </si>
+  <si>
+    <t>Баров</t>
+  </si>
+  <si>
+    <t>Голюдбин</t>
+  </si>
+  <si>
+    <t>Царев</t>
+  </si>
+  <si>
+    <t>Гусев</t>
+  </si>
+  <si>
+    <t>Толстов</t>
+  </si>
+  <si>
+    <t>Щетинин</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Дирина</t>
+  </si>
+  <si>
+    <t>Захаров</t>
+  </si>
+  <si>
+    <t>Пестерев</t>
+  </si>
+  <si>
+    <t>Шагалиев</t>
+  </si>
+  <si>
+    <t>Рамиль</t>
+  </si>
+  <si>
+    <t>Литвинов</t>
+  </si>
+  <si>
+    <t>Ковтун</t>
+  </si>
+  <si>
+    <t>Негадов</t>
+  </si>
+  <si>
+    <t>Ширяев</t>
+  </si>
+  <si>
+    <t>Веденьев</t>
+  </si>
+  <si>
+    <t>Угроватов</t>
+  </si>
+  <si>
+    <t>Сафонов</t>
+  </si>
+  <si>
+    <t>Ассмус</t>
+  </si>
+  <si>
+    <t>Багинский</t>
+  </si>
+  <si>
+    <t>Людмила</t>
+  </si>
+  <si>
+    <t>Гончарик</t>
+  </si>
+  <si>
+    <t>Рафиков</t>
+  </si>
+  <si>
+    <t>Стариков</t>
+  </si>
+  <si>
+    <t>Журавский</t>
+  </si>
+  <si>
+    <t>Алейников</t>
+  </si>
+  <si>
+    <t>Езжев</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Зельский</t>
+  </si>
+  <si>
+    <t>Лантюхов</t>
+  </si>
+  <si>
+    <t>Жилкин</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Компанец</t>
+  </si>
+  <si>
+    <t>Чернокоз</t>
+  </si>
+  <si>
+    <t>Левчиков</t>
+  </si>
+  <si>
+    <t>Клепинин</t>
+  </si>
+  <si>
+    <t>Фартышев</t>
+  </si>
+  <si>
+    <t>Трофимов</t>
+  </si>
+  <si>
+    <t>Маликова</t>
+  </si>
+  <si>
+    <t>Щербаков</t>
+  </si>
+  <si>
+    <t>Мезенцев</t>
+  </si>
+  <si>
+    <t>Попцова</t>
+  </si>
+  <si>
+    <t>Шестаков</t>
+  </si>
+  <si>
+    <t>Одинцов</t>
+  </si>
+  <si>
+    <t>Москаленко</t>
+  </si>
+  <si>
+    <t>Левчук</t>
+  </si>
+  <si>
+    <t>Маслов</t>
+  </si>
+  <si>
+    <t>Артемьев</t>
+  </si>
+  <si>
+    <t>Марьенко</t>
+  </si>
+  <si>
+    <t>Харичко</t>
+  </si>
+  <si>
+    <t>Некричевских</t>
+  </si>
+  <si>
+    <t>Крайнов</t>
+  </si>
+  <si>
+    <t>Фларит</t>
+  </si>
+  <si>
+    <t>Сошина</t>
+  </si>
+  <si>
+    <t>Молоканова</t>
+  </si>
+  <si>
+    <t>Околелов</t>
+  </si>
+  <si>
+    <t>Левин</t>
+  </si>
+  <si>
+    <t>Филипп</t>
+  </si>
+  <si>
+    <t>Валгепеа</t>
+  </si>
+  <si>
+    <t>Орлов</t>
+  </si>
+  <si>
+    <t>Морозова</t>
+  </si>
+  <si>
+    <t>Морев</t>
+  </si>
+  <si>
+    <t>Киселев</t>
+  </si>
+  <si>
+    <t>Князева</t>
+  </si>
+  <si>
+    <t>Лысухин</t>
+  </si>
+  <si>
+    <t>Селин</t>
+  </si>
+  <si>
+    <t>Зарубин</t>
+  </si>
+  <si>
+    <t>Лучин</t>
+  </si>
+  <si>
+    <t>Адилов</t>
+  </si>
+  <si>
+    <t>Шайдаров</t>
+  </si>
+  <si>
+    <t>Галкин</t>
+  </si>
+  <si>
+    <t>Айрапетян</t>
+  </si>
+  <si>
+    <t>Ваган</t>
+  </si>
+  <si>
+    <t>Середкин</t>
+  </si>
+  <si>
+    <t>Савельев</t>
+  </si>
+  <si>
+    <t>Буровников</t>
+  </si>
+  <si>
+    <t>Малецкий</t>
+  </si>
+  <si>
+    <t>Идрисов</t>
+  </si>
+  <si>
+    <t>Толстокоров</t>
+  </si>
+  <si>
+    <t>Парфентьев</t>
+  </si>
+  <si>
+    <t>Узоров</t>
+  </si>
+  <si>
+    <t>Волобуев</t>
+  </si>
+  <si>
+    <t>Тихая</t>
+  </si>
+  <si>
+    <t>Курилов</t>
+  </si>
+  <si>
+    <t>Калимбетов</t>
+  </si>
+  <si>
+    <t>Шабанов</t>
+  </si>
+  <si>
+    <t>Абасалиев</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Таранова</t>
+  </si>
+  <si>
+    <t>Мамакова</t>
   </si>
 </sst>
 </file>
@@ -2092,43 +2002,46 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="57.3984375" customWidth="1"/>
+    <col min="2" max="2" width="77.19921875" customWidth="1"/>
     <col min="5" max="5" width="11" style="2"/>
+    <col min="6" max="6" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>563</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>562</v>
+        <v>298</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>561</v>
+        <v>297</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>560</v>
+        <v>296</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>559</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>557</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>555</v>
+        <v>292</v>
       </c>
       <c r="E2" s="2">
         <v>5001</v>
@@ -2136,16 +2049,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>553</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2">
         <v>5002</v>
@@ -2153,16 +2066,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>552</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>5003</v>
@@ -2170,16 +2083,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>549</v>
+        <v>289</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>5004</v>
@@ -2187,16 +2100,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>288</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>5005</v>
@@ -2204,16 +2117,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>545</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>544</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>5006</v>
@@ -2221,16 +2134,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>543</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>542</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>540</v>
+        <v>284</v>
       </c>
       <c r="E8" s="2">
         <v>5007</v>
@@ -2238,16 +2151,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>541</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>540</v>
+        <v>284</v>
       </c>
       <c r="E9" s="2">
         <v>5008</v>
@@ -2255,16 +2168,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>539</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>538</v>
+        <v>283</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2">
         <v>5009</v>
@@ -2272,16 +2185,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>537</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>536</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2">
         <v>5010</v>
@@ -2289,16 +2202,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>532</v>
+        <v>280</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
         <v>5011</v>
@@ -2306,16 +2219,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>534</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>532</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2">
         <v>5012</v>
@@ -2323,16 +2236,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>532</v>
+        <v>280</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>5013</v>
@@ -2340,16 +2253,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>530</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2">
         <v>5014</v>
@@ -2357,16 +2270,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>528</v>
+        <v>279</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2">
         <v>5015</v>
@@ -2374,16 +2287,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>526</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2">
         <v>5016</v>
@@ -2391,16 +2304,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>525</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>524</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>523</v>
+        <v>277</v>
       </c>
       <c r="D18" t="s">
-        <v>522</v>
+        <v>276</v>
       </c>
       <c r="E18" s="2">
         <v>5017</v>
@@ -2408,16 +2321,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>520</v>
+        <v>275</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2">
         <v>5018</v>
@@ -2425,16 +2338,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>518</v>
+        <v>274</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2">
         <v>5019</v>
@@ -2442,16 +2355,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="C21" t="s">
-        <v>515</v>
+        <v>272</v>
       </c>
       <c r="D21" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="E21" s="2">
         <v>5020</v>
@@ -2459,16 +2372,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>516</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>515</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="E22" s="2">
         <v>5021</v>
@@ -2476,16 +2389,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>514</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C23" t="s">
-        <v>513</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2">
         <v>5022</v>
@@ -2493,16 +2406,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>512</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
-        <v>511</v>
+        <v>328</v>
       </c>
       <c r="C24" t="s">
-        <v>509</v>
+        <v>269</v>
       </c>
       <c r="D24" t="s">
-        <v>508</v>
+        <v>268</v>
       </c>
       <c r="E24" s="2">
         <v>5023</v>
@@ -2510,16 +2423,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>509</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>508</v>
+        <v>268</v>
       </c>
       <c r="E25" s="2">
         <v>5024</v>
@@ -2527,16 +2440,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>507</v>
+        <v>329</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>506</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>189</v>
       </c>
       <c r="E26" s="2">
         <v>5025</v>
@@ -2544,16 +2457,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>505</v>
+        <v>330</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E27" s="2">
         <v>5026</v>
@@ -2561,16 +2474,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>503</v>
+        <v>331</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>502</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="E28" s="2">
         <v>5027</v>
@@ -2578,16 +2491,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>501</v>
+        <v>332</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C29" t="s">
-        <v>500</v>
+        <v>264</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2">
         <v>5028</v>
@@ -2595,16 +2508,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>242</v>
       </c>
       <c r="D30" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="E30" s="2">
         <v>5029</v>
@@ -2612,16 +2525,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>499</v>
+        <v>334</v>
       </c>
       <c r="B31" t="s">
-        <v>498</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
-        <v>495</v>
+        <v>262</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2">
         <v>5030</v>
@@ -2629,16 +2542,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>497</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s">
-        <v>496</v>
+        <v>336</v>
       </c>
       <c r="C32" t="s">
-        <v>495</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2">
         <v>5031</v>
@@ -2646,16 +2559,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>494</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>493</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2">
         <v>5032</v>
@@ -2663,13 +2576,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>492</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>403</v>
+        <v>215</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -2680,13 +2593,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>491</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>490</v>
+        <v>259</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2697,16 +2610,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>489</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s">
-        <v>489</v>
+        <v>258</v>
       </c>
       <c r="C36" t="s">
-        <v>487</v>
+        <v>256</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2">
         <v>5035</v>
@@ -2714,16 +2627,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>488</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>487</v>
+        <v>256</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2">
         <v>5036</v>
@@ -2731,16 +2644,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>486</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s">
-        <v>485</v>
+        <v>340</v>
       </c>
       <c r="C38" t="s">
-        <v>482</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E38" s="2">
         <v>5037</v>
@@ -2748,16 +2661,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>484</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>482</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E39" s="2">
         <v>5038</v>
@@ -2765,16 +2678,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>483</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>482</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E40" s="2">
         <v>5039</v>
@@ -2782,16 +2695,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>480</v>
+        <v>254</v>
       </c>
       <c r="D41" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="E41" s="2">
         <v>5040</v>
@@ -2799,16 +2712,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>479</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s">
-        <v>478</v>
+        <v>345</v>
       </c>
       <c r="C42" t="s">
-        <v>475</v>
+        <v>253</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2">
         <v>5041</v>
@@ -2816,16 +2729,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>477</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s">
-        <v>476</v>
+        <v>347</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2">
         <v>5042</v>
@@ -2833,16 +2746,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s">
-        <v>473</v>
+        <v>349</v>
       </c>
       <c r="C44" t="s">
-        <v>471</v>
+        <v>252</v>
       </c>
       <c r="D44" t="s">
-        <v>470</v>
+        <v>251</v>
       </c>
       <c r="E44" s="2">
         <v>5043</v>
@@ -2850,16 +2763,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>472</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>351</v>
       </c>
       <c r="C45" t="s">
-        <v>471</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>470</v>
+        <v>251</v>
       </c>
       <c r="E45" s="2">
         <v>5044</v>
@@ -2867,16 +2780,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>469</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s">
-        <v>468</v>
+        <v>249</v>
       </c>
       <c r="C46" t="s">
-        <v>467</v>
+        <v>248</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="E46" s="2">
         <v>5045</v>
@@ -2884,16 +2797,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>465</v>
+        <v>247</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E47" s="2">
         <v>5046</v>
@@ -2901,16 +2814,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>464</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>463</v>
+        <v>246</v>
       </c>
       <c r="D48" t="s">
-        <v>462</v>
+        <v>245</v>
       </c>
       <c r="E48" s="2">
         <v>5047</v>
@@ -2918,16 +2831,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>244</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E49" s="2">
         <v>5048</v>
@@ -2935,16 +2848,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>459</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="C50" t="s">
-        <v>457</v>
+        <v>243</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E50" s="2">
         <v>5049</v>
@@ -2952,16 +2865,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>458</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C51" t="s">
-        <v>457</v>
+        <v>243</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2">
         <v>5050</v>
@@ -2969,16 +2882,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>456</v>
+        <v>357</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>455</v>
+        <v>242</v>
       </c>
       <c r="D52" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="E52" s="2">
         <v>5051</v>
@@ -2986,16 +2899,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>454</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="E53" s="2">
         <v>5052</v>
@@ -3003,16 +2916,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="C54" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="D54" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="E54" s="2">
         <v>5053</v>
@@ -3020,16 +2933,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>446</v>
+        <v>237</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E55" s="2">
         <v>5054</v>
@@ -3037,16 +2950,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>448</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>447</v>
+        <v>238</v>
       </c>
       <c r="C56" t="s">
-        <v>446</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2">
         <v>5055</v>
@@ -3054,16 +2967,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s">
-        <v>444</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
-        <v>439</v>
+        <v>234</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E57" s="2">
         <v>5056</v>
@@ -3071,16 +2984,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>443</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s">
-        <v>359</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>439</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E58" s="2">
         <v>5057</v>
@@ -3088,16 +3001,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>442</v>
+        <v>364</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>439</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E59" s="2">
         <v>5058</v>
@@ -3105,16 +3018,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>441</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s">
-        <v>426</v>
+        <v>228</v>
       </c>
       <c r="C60" t="s">
-        <v>439</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E60" s="2">
         <v>5059</v>
@@ -3122,16 +3035,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>440</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>439</v>
+        <v>234</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E61" s="2">
         <v>5060</v>
@@ -3139,16 +3052,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>434</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2">
         <v>5061</v>
@@ -3156,16 +3069,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>437</v>
+        <v>367</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="E63" s="2">
         <v>5062</v>
@@ -3173,16 +3086,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="B64" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="C64" t="s">
-        <v>434</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2">
         <v>5063</v>
@@ -3190,16 +3103,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>432</v>
+        <v>232</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E65" s="2">
         <v>5064</v>
@@ -3207,16 +3120,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>431</v>
+        <v>231</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2">
         <v>5065</v>
@@ -3224,16 +3137,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="C67" t="s">
-        <v>428</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E67" s="2">
         <v>5066</v>
@@ -3241,16 +3154,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="B68" t="s">
-        <v>426</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E68" s="2">
         <v>5067</v>
@@ -3258,16 +3171,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E69" s="2">
         <v>5068</v>
@@ -3275,16 +3188,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>421</v>
+        <v>226</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>225</v>
       </c>
       <c r="E70" s="2">
         <v>5069</v>
@@ -3292,16 +3205,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>421</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
-        <v>420</v>
+        <v>225</v>
       </c>
       <c r="E71" s="2">
         <v>5070</v>
@@ -3309,16 +3222,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>418</v>
+        <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E72" s="2">
         <v>5071</v>
@@ -3326,16 +3239,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>416</v>
+        <v>223</v>
       </c>
       <c r="D73" t="s">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="E73" s="2">
         <v>5072</v>
@@ -3343,16 +3256,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>414</v>
+        <v>222</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E74" s="2">
         <v>5073</v>
@@ -3360,16 +3273,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>380</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>413</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="E75" s="2">
         <v>5074</v>
@@ -3377,16 +3290,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>220</v>
       </c>
       <c r="D76" t="s">
-        <v>410</v>
+        <v>219</v>
       </c>
       <c r="E76" s="2">
         <v>5075</v>
@@ -3394,16 +3307,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>406</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E77" s="2">
         <v>5076</v>
@@ -3411,16 +3324,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="B78" t="s">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>406</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E78" s="2">
         <v>5077</v>
@@ -3428,16 +3341,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>200</v>
       </c>
       <c r="D79" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E79" s="2">
         <v>5078</v>
@@ -3445,13 +3358,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>403</v>
+        <v>215</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -3462,16 +3375,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>400</v>
+        <v>213</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E81" s="2">
         <v>5080</v>
@@ -3479,16 +3392,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>401</v>
+        <v>214</v>
       </c>
       <c r="B82" t="s">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>400</v>
+        <v>213</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E82" s="2">
         <v>5081</v>
@@ -3496,16 +3409,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>398</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E83" s="2">
         <v>5082</v>
@@ -3513,16 +3426,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>396</v>
+        <v>211</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E84" s="2">
         <v>5083</v>
@@ -3530,16 +3443,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>395</v>
+        <v>210</v>
       </c>
       <c r="B85" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C85" t="s">
-        <v>392</v>
+        <v>209</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2">
         <v>5084</v>
@@ -3547,16 +3460,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>392</v>
+        <v>209</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2">
         <v>5085</v>
@@ -3567,13 +3480,13 @@
         <v>391</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E87" s="2">
         <v>5086</v>
@@ -3581,16 +3494,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>388</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>386</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2">
         <v>5087</v>
@@ -3598,16 +3511,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>386</v>
+        <v>206</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2">
         <v>5088</v>
@@ -3615,16 +3528,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="C90" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="E90" s="2">
         <v>5089</v>
@@ -3632,16 +3545,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="C91" t="s">
-        <v>358</v>
+        <v>195</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E91" s="2">
         <v>5090</v>
@@ -3649,16 +3562,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>358</v>
+        <v>195</v>
       </c>
       <c r="D92" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E92" s="2">
         <v>5091</v>
@@ -3666,16 +3579,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E93" s="2">
         <v>5092</v>
@@ -3683,16 +3596,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="D94" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E94" s="2">
         <v>5093</v>
@@ -3700,16 +3613,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D95" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="E95" s="2">
         <v>5094</v>
@@ -3717,16 +3630,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>377</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E96" s="2">
         <v>5095</v>
@@ -3734,16 +3647,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="D97" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E97" s="2">
         <v>5096</v>
@@ -3751,16 +3664,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="B98" t="s">
-        <v>374</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="D98" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E98" s="2">
         <v>5097</v>
@@ -3768,16 +3681,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="C99" t="s">
         <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="E99" s="2">
         <v>5098</v>
@@ -3785,16 +3698,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>367</v>
+        <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E100" s="2">
         <v>5099</v>
@@ -3802,16 +3715,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="B101" t="s">
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>367</v>
+        <v>200</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E101" s="2">
         <v>5100</v>
@@ -3819,16 +3732,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>365</v>
+        <v>199</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2">
         <v>5101</v>
@@ -3836,16 +3749,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="B103" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="D103" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E103" s="2">
         <v>5102</v>
@@ -3853,16 +3766,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="B104" t="s">
-        <v>361</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>358</v>
+        <v>195</v>
       </c>
       <c r="D104" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E104" s="2">
         <v>5103</v>
@@ -3870,16 +3783,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="B105" t="s">
-        <v>359</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>358</v>
+        <v>195</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E105" s="2">
         <v>5104</v>
@@ -3887,16 +3800,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>355</v>
+        <v>194</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E106" s="2">
         <v>5105</v>
@@ -3904,16 +3817,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="B107" t="s">
         <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>355</v>
+        <v>194</v>
       </c>
       <c r="D107" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E107" s="2">
         <v>5106</v>
@@ -3921,16 +3834,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="B108" t="s">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="D108" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2">
         <v>5107</v>
@@ -3938,16 +3851,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="B109" t="s">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="D109" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2">
         <v>5108</v>
@@ -3955,16 +3868,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="B110" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C110" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="D110" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2">
         <v>5109</v>
@@ -3972,16 +3885,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="B111" t="s">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2">
         <v>5110</v>
@@ -3989,16 +3902,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>347</v>
+        <v>191</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E112" s="2">
         <v>5111</v>
@@ -4006,16 +3919,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>345</v>
+        <v>190</v>
       </c>
       <c r="D113" t="s">
-        <v>344</v>
+        <v>189</v>
       </c>
       <c r="E113" s="2">
         <v>5112</v>
@@ -4023,16 +3936,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="E114" s="2">
         <v>5113</v>
@@ -4040,16 +3953,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>340</v>
+        <v>418</v>
       </c>
       <c r="B115" t="s">
         <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E115" s="2">
         <v>5114</v>
@@ -4057,16 +3970,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="B116" t="s">
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>337</v>
+        <v>185</v>
       </c>
       <c r="D116" t="s">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="E116" s="2">
         <v>5115</v>
@@ -4074,16 +3987,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>335</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="D117" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E117" s="2">
         <v>5116</v>
@@ -4091,16 +4004,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>334</v>
+        <v>420</v>
       </c>
       <c r="B118" t="s">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E118" s="2">
         <v>5117</v>
@@ -4108,16 +4021,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E119" s="2">
         <v>5118</v>
@@ -4125,16 +4038,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E120" s="2">
         <v>5119</v>
@@ -4142,16 +4055,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
       </c>
       <c r="C121" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="D121" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="E121" s="2">
         <v>5120</v>
@@ -4159,16 +4072,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="D122" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2">
         <v>5121</v>
@@ -4176,16 +4089,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>329</v>
+        <v>423</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="D123" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2">
         <v>5122</v>
@@ -4193,16 +4106,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>327</v>
+        <v>424</v>
       </c>
       <c r="B124" t="s">
         <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="D124" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2">
         <v>5123</v>
@@ -4210,16 +4123,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="B125" t="s">
-        <v>325</v>
+        <v>108</v>
       </c>
       <c r="C125" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="D125" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="E125" s="2">
         <v>5124</v>
@@ -4227,16 +4140,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>323</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="D126" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="E126" s="2">
         <v>5125</v>
@@ -4244,16 +4157,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="D127" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="E127" s="2">
         <v>5126</v>
@@ -4261,16 +4174,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>319</v>
+        <v>427</v>
       </c>
       <c r="B128" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="C128" t="s">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="D128" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="E128" s="2">
         <v>5127</v>
@@ -4278,16 +4191,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>317</v>
+        <v>428</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E129" s="2">
         <v>5128</v>
@@ -4295,16 +4208,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>316</v>
+        <v>429</v>
       </c>
       <c r="B130" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="E130" s="2">
         <v>5129</v>
@@ -4312,16 +4225,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>315</v>
+        <v>430</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="D131" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="E131" s="2">
         <v>5130</v>
@@ -4329,16 +4242,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="B132" t="s">
-        <v>311</v>
+        <v>432</v>
       </c>
       <c r="C132" t="s">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="D132" t="s">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="E132" s="2">
         <v>5131</v>
@@ -4346,16 +4259,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
       <c r="B133" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
       <c r="C133" t="s">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="D133" t="s">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="E133" s="2">
         <v>5132</v>
@@ -4363,16 +4276,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>305</v>
+        <v>435</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="D134" t="s">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="E134" s="2">
         <v>5133</v>
@@ -4380,16 +4293,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="B135" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C135" t="s">
-        <v>299</v>
+        <v>171</v>
       </c>
       <c r="D135" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E135" s="2">
         <v>5134</v>
@@ -4397,16 +4310,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>299</v>
+        <v>171</v>
       </c>
       <c r="D136" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E136" s="2">
         <v>5135</v>
@@ -4414,16 +4327,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>298</v>
+        <v>437</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="E137" s="2">
         <v>5136</v>
@@ -4431,16 +4344,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>295</v>
+        <v>438</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="D138" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="E138" s="2">
         <v>5137</v>
@@ -4448,16 +4361,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>292</v>
+        <v>166</v>
       </c>
       <c r="B139" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>291</v>
+        <v>165</v>
       </c>
       <c r="D139" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="E139" s="2">
         <v>5138</v>
@@ -4465,16 +4378,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>289</v>
+        <v>439</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="D140" t="s">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2">
         <v>5139</v>
@@ -4482,16 +4395,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>286</v>
+        <v>440</v>
       </c>
       <c r="B141" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="D141" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E141" s="2">
         <v>5140</v>
@@ -4499,16 +4412,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>441</v>
       </c>
       <c r="B142" t="s">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="D142" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E142" s="2">
         <v>5141</v>
@@ -4516,16 +4429,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>127</v>
+        <v>442</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="D143" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E143" s="2">
         <v>5142</v>
@@ -4533,16 +4446,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>443</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="D144" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E144" s="2">
         <v>5143</v>
@@ -4550,16 +4463,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>282</v>
+        <v>444</v>
       </c>
       <c r="B145" t="s">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E145" s="2">
         <v>5144</v>
@@ -4567,16 +4480,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>279</v>
+        <v>445</v>
       </c>
       <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
         <v>160</v>
       </c>
-      <c r="C146" t="s">
-        <v>278</v>
-      </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="E146" s="2">
         <v>5145</v>
@@ -4584,16 +4497,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>276</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C147" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="D147" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="E147" s="2">
         <v>5146</v>
@@ -4601,16 +4514,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="B148" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="D148" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="E148" s="2">
         <v>5147</v>
@@ -4618,16 +4531,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>271</v>
+        <v>446</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="D149" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="E149" s="2">
         <v>5148</v>
@@ -4635,16 +4548,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>267</v>
+        <v>447</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="D150" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="E150" s="2">
         <v>5149</v>
@@ -4652,16 +4565,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>448</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="D151" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="E151" s="2">
         <v>5150</v>
@@ -4669,16 +4582,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>262</v>
+        <v>449</v>
       </c>
       <c r="B152" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="D152" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E152" s="2">
         <v>5151</v>
@@ -4686,16 +4599,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>261</v>
+        <v>450</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="C153" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="D153" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E153" s="2">
         <v>5152</v>
@@ -4703,16 +4616,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>258</v>
+        <v>451</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D154" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2">
         <v>5153</v>
@@ -4720,16 +4633,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>257</v>
+        <v>452</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D155" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2">
         <v>5154</v>
@@ -4737,16 +4650,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>256</v>
+        <v>453</v>
       </c>
       <c r="B156" t="s">
-        <v>255</v>
+        <v>454</v>
       </c>
       <c r="C156" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D156" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="E156" s="2">
         <v>5155</v>
@@ -4754,16 +4667,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="B157" t="s">
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="D157" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2">
         <v>5156</v>
@@ -4771,16 +4684,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>249</v>
+        <v>455</v>
       </c>
       <c r="B158" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C158" t="s">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="D158" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E158" s="2">
         <v>5157</v>
@@ -4788,16 +4701,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>247</v>
+        <v>456</v>
       </c>
       <c r="B159" t="s">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="D159" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E159" s="2">
         <v>5158</v>
@@ -4805,16 +4718,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="B160" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="D160" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="E160" s="2">
         <v>5159</v>
@@ -4822,16 +4735,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="B161" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="D161" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="E161" s="2">
         <v>5160</v>
@@ -4839,16 +4752,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="B162" t="s">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E162" s="2">
         <v>5161</v>
@@ -4856,16 +4769,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>238</v>
+        <v>457</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>457</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="D163" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E163" s="2">
         <v>5162</v>
@@ -4873,16 +4786,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>236</v>
+        <v>458</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="D164" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="E164" s="2">
         <v>5163</v>
@@ -4890,16 +4803,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="D165" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E165" s="2">
         <v>5164</v>
@@ -4907,13 +4820,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>231</v>
+        <v>460</v>
       </c>
       <c r="B166" t="s">
         <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="D166" t="s">
         <v>23</v>
@@ -4924,16 +4837,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>229</v>
+        <v>461</v>
       </c>
       <c r="B167" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="C167" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="D167" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E167" s="2">
         <v>5166</v>
@@ -4941,16 +4854,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>227</v>
+        <v>462</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="D168" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E168" s="2">
         <v>5167</v>
@@ -4958,16 +4871,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D169" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E169" s="2">
         <v>5168</v>
@@ -4975,16 +4888,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>224</v>
+        <v>463</v>
       </c>
       <c r="B170" t="s">
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D170" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E170" s="2">
         <v>5169</v>
@@ -4992,16 +4905,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="B171" t="s">
-        <v>222</v>
+        <v>464</v>
       </c>
       <c r="C171" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D171" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E171" s="2">
         <v>5170</v>
@@ -5009,16 +4922,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="B172" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="C172" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D172" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E172" s="2">
         <v>5171</v>
@@ -5026,16 +4939,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>220</v>
+        <v>465</v>
       </c>
       <c r="B173" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D173" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E173" s="2">
         <v>5172</v>
@@ -5043,16 +4956,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="D174" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="E174" s="2">
         <v>5173</v>
@@ -5060,16 +4973,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="B175" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C175" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="D175" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="E175" s="2">
         <v>5174</v>
@@ -5077,16 +4990,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>466</v>
       </c>
       <c r="B176" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="C176" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="D176" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E176" s="2">
         <v>5175</v>
@@ -5094,16 +5007,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>214</v>
+        <v>467</v>
       </c>
       <c r="B177" t="s">
         <v>20</v>
       </c>
       <c r="C177" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E177" s="2">
         <v>5176</v>
@@ -5111,16 +5024,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>468</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="D178" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E178" s="2">
         <v>5177</v>
@@ -5128,16 +5041,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>211</v>
+        <v>469</v>
       </c>
       <c r="B179" t="s">
         <v>18</v>
       </c>
       <c r="C179" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="D179" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E179" s="2">
         <v>5178</v>
@@ -5145,30 +5058,30 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="B180" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="D180" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E180" s="2">
         <v>5179</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>0</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
+      <c r="A181" t="s">
+        <v>471</v>
+      </c>
+      <c r="B181" t="s">
+        <v>471</v>
+      </c>
+      <c r="C181" t="s">
+        <v>471</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -5179,30 +5092,30 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>472</v>
       </c>
       <c r="B182" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C182" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="D182" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="E182" s="2">
         <v>5181</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>0</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
+      <c r="A183" t="s">
+        <v>471</v>
+      </c>
+      <c r="B183" t="s">
+        <v>471</v>
+      </c>
+      <c r="C183" t="s">
+        <v>471</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -5213,16 +5126,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>206</v>
+        <v>473</v>
       </c>
       <c r="B184" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="D184" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E184" s="2">
         <v>5183</v>
@@ -5230,16 +5143,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>204</v>
+        <v>474</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="D185" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E185" s="2">
         <v>5184</v>
@@ -5247,16 +5160,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="D186" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E186" s="2">
         <v>5185</v>
@@ -5264,13 +5177,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>200</v>
+        <v>476</v>
       </c>
       <c r="B187" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="C187" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="D187" t="s">
         <v>23</v>
@@ -5281,13 +5194,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>198</v>
+        <v>477</v>
       </c>
       <c r="B188" t="s">
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="D188" t="s">
         <v>23</v>
@@ -5298,13 +5211,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>197</v>
+        <v>478</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="D189" t="s">
         <v>23</v>
@@ -5315,16 +5228,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>479</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D190" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E190" s="2">
         <v>5189</v>
@@ -5332,16 +5245,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>480</v>
       </c>
       <c r="B191" t="s">
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="D191" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="E191" s="2">
         <v>5190</v>
@@ -5349,16 +5262,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>481</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="D192" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="E192" s="2">
         <v>5191</v>
@@ -5366,16 +5279,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>482</v>
       </c>
       <c r="B193" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="C193" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="D193" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="E193" s="2">
         <v>5192</v>
@@ -5383,16 +5296,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>188</v>
+        <v>483</v>
       </c>
       <c r="B194" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="D194" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="E194" s="2">
         <v>5193</v>
@@ -5400,16 +5313,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>185</v>
+        <v>484</v>
       </c>
       <c r="B195" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="D195" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E195" s="2">
         <v>5194</v>
@@ -5417,16 +5330,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>183</v>
+        <v>485</v>
       </c>
       <c r="B196" t="s">
-        <v>182</v>
+        <v>351</v>
       </c>
       <c r="C196" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="D196" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="E196" s="2">
         <v>5195</v>
@@ -5434,16 +5347,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>486</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="D197" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="E197" s="2">
         <v>5196</v>
@@ -5451,16 +5364,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="B198" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C198" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="D198" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="E198" s="2">
         <v>5197</v>
@@ -5468,16 +5381,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>172</v>
+        <v>488</v>
       </c>
       <c r="B199" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D199" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="E199" s="2">
         <v>5198</v>
@@ -5485,16 +5398,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>169</v>
+        <v>489</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="D200" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E200" s="2">
         <v>5199</v>
@@ -5502,16 +5415,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>167</v>
+        <v>490</v>
       </c>
       <c r="B201" t="s">
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="D201" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E201" s="2">
         <v>5200</v>
@@ -5519,16 +5432,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>165</v>
+        <v>491</v>
       </c>
       <c r="B202" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="D202" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E202" s="2">
         <v>5201</v>
@@ -5536,16 +5449,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>164</v>
+        <v>492</v>
       </c>
       <c r="B203" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="D203" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E203" s="2">
         <v>5202</v>
@@ -5553,16 +5466,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>161</v>
+        <v>493</v>
       </c>
       <c r="B204" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="D204" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="E204" s="2">
         <v>5203</v>
@@ -5570,16 +5483,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>157</v>
+        <v>494</v>
       </c>
       <c r="B205" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="C205" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D205" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E205" s="2">
         <v>5204</v>
@@ -5587,16 +5500,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>154</v>
+        <v>495</v>
       </c>
       <c r="B206" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="D206" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="E206" s="2">
         <v>5205</v>
@@ -5604,16 +5517,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="B207" t="s">
-        <v>150</v>
+        <v>496</v>
       </c>
       <c r="C207" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="D207" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="E207" s="2">
         <v>5206</v>
@@ -5621,16 +5534,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="B208" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C208" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="D208" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="E208" s="2">
         <v>5207</v>
@@ -5638,16 +5551,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>144</v>
+        <v>497</v>
       </c>
       <c r="B209" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="C209" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="D209" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E209" s="2">
         <v>5208</v>
@@ -5655,16 +5568,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>143</v>
+        <v>498</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="D210" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E210" s="2">
         <v>5209</v>
@@ -5672,16 +5585,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="B211" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C211" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D211" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E211" s="2">
         <v>5210</v>
@@ -5689,16 +5602,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D212" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E212" s="2">
         <v>5211</v>
@@ -5706,16 +5619,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="B213" t="s">
         <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="D213" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E213" s="2">
         <v>5212</v>
@@ -5723,30 +5636,30 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="B214" t="s">
-        <v>134</v>
+        <v>501</v>
       </c>
       <c r="C214" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="D214" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E214" s="2">
         <v>5213</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>0</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
+      <c r="A215" t="s">
+        <v>471</v>
+      </c>
+      <c r="B215" t="s">
+        <v>471</v>
+      </c>
+      <c r="C215" t="s">
+        <v>471</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -5757,16 +5670,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>132</v>
+        <v>502</v>
       </c>
       <c r="B216" t="s">
         <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="D216" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E216" s="2">
         <v>5215</v>
@@ -5774,16 +5687,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="B217" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C217" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="D217" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E217" s="2">
         <v>5216</v>
@@ -5791,16 +5704,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>128</v>
+        <v>503</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D218" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E218" s="2">
         <v>5217</v>
@@ -5808,16 +5721,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>127</v>
+        <v>442</v>
       </c>
       <c r="B219" t="s">
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D219" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E219" s="2">
         <v>5218</v>
@@ -5825,16 +5738,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>124</v>
+        <v>504</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D220" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E220" s="2">
         <v>5219</v>
@@ -5842,16 +5755,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>123</v>
+        <v>505</v>
       </c>
       <c r="B221" t="s">
         <v>18</v>
       </c>
       <c r="C221" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D221" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E221" s="2">
         <v>5220</v>
@@ -5859,16 +5772,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>122</v>
+        <v>506</v>
       </c>
       <c r="B222" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C222" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D222" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E222" s="2">
         <v>5221</v>
@@ -5876,16 +5789,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>118</v>
+        <v>507</v>
       </c>
       <c r="B223" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="C223" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D223" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E223" s="2">
         <v>5222</v>
@@ -5893,16 +5806,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>114</v>
+        <v>508</v>
       </c>
       <c r="B224" t="s">
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D224" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E224" s="2">
         <v>5223</v>
@@ -5910,30 +5823,30 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>112</v>
+        <v>509</v>
       </c>
       <c r="B225" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C225" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D225" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E225" s="2">
         <v>5224</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>0</v>
-      </c>
-      <c r="B226">
-        <v>0</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
+      <c r="A226" t="s">
+        <v>471</v>
+      </c>
+      <c r="B226" t="s">
+        <v>471</v>
+      </c>
+      <c r="C226" t="s">
+        <v>471</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -5944,16 +5857,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>108</v>
+        <v>510</v>
       </c>
       <c r="B227" t="s">
         <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D227" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E227" s="2">
         <v>5226</v>
@@ -5961,16 +5874,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>107</v>
+        <v>511</v>
       </c>
       <c r="B228" t="s">
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D228" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E228" s="2">
         <v>5227</v>
@@ -5978,16 +5891,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>106</v>
+        <v>512</v>
       </c>
       <c r="B229" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="C229" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D229" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E229" s="2">
         <v>5228</v>
@@ -5995,16 +5908,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>104</v>
+        <v>380</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D230" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="E230" s="2">
         <v>5229</v>
@@ -6012,16 +5925,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B231" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C231" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D231" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E231" s="2">
         <v>5230</v>
@@ -6029,16 +5942,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>98</v>
+        <v>513</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
       </c>
       <c r="C232" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D232" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E232" s="2">
         <v>5231</v>
@@ -6046,16 +5959,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B233" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D233" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E233" s="2">
         <v>5232</v>
@@ -6063,16 +5976,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="B234" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C234" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D234" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E234" s="2">
         <v>5233</v>
@@ -6080,16 +5993,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>89</v>
+        <v>514</v>
       </c>
       <c r="B235" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D235" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E235" s="2">
         <v>5234</v>
@@ -6097,16 +6010,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>86</v>
+        <v>515</v>
       </c>
       <c r="B236" t="s">
-        <v>85</v>
+        <v>516</v>
       </c>
       <c r="C236" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D236" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E236" s="2">
         <v>5235</v>
@@ -6114,16 +6027,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>84</v>
+        <v>517</v>
       </c>
       <c r="B237" t="s">
         <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D237" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E237" s="2">
         <v>5236</v>
@@ -6131,16 +6044,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="B238" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D238" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E238" s="2">
         <v>5237</v>
@@ -6148,16 +6061,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D239" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E239" s="2">
         <v>5238</v>
@@ -6165,16 +6078,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="B240" t="s">
         <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D240" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E240" s="2">
         <v>5239</v>
@@ -6182,16 +6095,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D241" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E241" s="2">
         <v>5240</v>
@@ -6199,16 +6112,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>70</v>
+        <v>520</v>
       </c>
       <c r="B242" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="C242" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D242" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E242" s="2">
         <v>5241</v>
@@ -6216,16 +6129,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>70</v>
+        <v>520</v>
       </c>
       <c r="B243" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C243" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D243" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E243" s="2">
         <v>5242</v>
@@ -6233,16 +6146,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>66</v>
+        <v>521</v>
       </c>
       <c r="B244" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="C244" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D244" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E244" s="2">
         <v>5243</v>
@@ -6250,16 +6163,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>62</v>
+        <v>522</v>
       </c>
       <c r="B245" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C245" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D245" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E245" s="2">
         <v>5244</v>
@@ -6267,16 +6180,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>58</v>
+        <v>523</v>
       </c>
       <c r="B246" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D246" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E246" s="2">
         <v>5245</v>
@@ -6284,16 +6197,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>54</v>
+        <v>524</v>
       </c>
       <c r="B247" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C247" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D247" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E247" s="2">
         <v>5246</v>
@@ -6301,16 +6214,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>525</v>
       </c>
       <c r="B248" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C248" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D248" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E248" s="2">
         <v>5247</v>
@@ -6318,16 +6231,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>526</v>
       </c>
       <c r="B249" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="C249" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D249" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E249" s="2">
         <v>5248</v>
@@ -6335,16 +6248,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B250" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D250" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E250" s="2">
         <v>5249</v>
@@ -6352,16 +6265,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>43</v>
+        <v>527</v>
       </c>
       <c r="B251" t="s">
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D251" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E251" s="2">
         <v>5250</v>
@@ -6369,16 +6282,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="B252" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D252" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E252" s="2">
         <v>5251</v>
@@ -6386,16 +6299,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>38</v>
+        <v>529</v>
       </c>
       <c r="B253" t="s">
         <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D253" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E253" s="2">
         <v>5252</v>
@@ -6403,16 +6316,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>37</v>
+        <v>530</v>
       </c>
       <c r="B254" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C254" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D254" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E254" s="2">
         <v>5253</v>
@@ -6420,16 +6333,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>32</v>
+        <v>531</v>
       </c>
       <c r="C255" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D255" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E255" s="2">
         <v>5254</v>
@@ -6437,16 +6350,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>30</v>
+        <v>532</v>
       </c>
       <c r="B256" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D256" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E256" s="2">
         <v>5255</v>
@@ -6454,10 +6367,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>26</v>
+        <v>533</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C257" t="s">
         <v>24</v>
